--- a/data/trans_orig/P6711-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>37001</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26799</v>
+        <v>25874</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49397</v>
+        <v>50035</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1375834886944801</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09964819590622896</v>
+        <v>0.09620797304190702</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1836759276494792</v>
+        <v>0.1860478796910681</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -763,19 +763,19 @@
         <v>21889</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13399</v>
+        <v>13280</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32013</v>
+        <v>32447</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.135726743238604</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08308051136646098</v>
+        <v>0.08234224013669661</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1984963750655052</v>
+        <v>0.2011878969511996</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -784,19 +784,19 @@
         <v>58891</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>45533</v>
+        <v>45010</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74532</v>
+        <v>74868</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1368874438889395</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1058382977846782</v>
+        <v>0.1046222708029171</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1732455829734942</v>
+        <v>0.1740263809510328</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>9654</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3974</v>
+        <v>4658</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17331</v>
+        <v>17173</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03589693585776119</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0147774940567708</v>
+        <v>0.01731823119559958</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06444081770438392</v>
+        <v>0.06385496526815831</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -834,19 +834,19 @@
         <v>8656</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3875</v>
+        <v>3802</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17668</v>
+        <v>18151</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05366973506405229</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02402971719795195</v>
+        <v>0.02357378873863716</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1095550140964971</v>
+        <v>0.1125456410887545</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -855,19 +855,19 @@
         <v>18310</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10506</v>
+        <v>10722</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29565</v>
+        <v>29760</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04255948862087985</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02441950123479149</v>
+        <v>0.02492237266034104</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06872171472276339</v>
+        <v>0.06917530414877457</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>31635</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22075</v>
+        <v>22801</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44001</v>
+        <v>43508</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1176286092140493</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08208289802177907</v>
+        <v>0.08478339190533818</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1636120452798265</v>
+        <v>0.1617767029238256</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -905,19 +905,19 @@
         <v>24439</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15530</v>
+        <v>16385</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35112</v>
+        <v>34639</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1515348456651056</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09629506260423781</v>
+        <v>0.101598946293267</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2177179346522701</v>
+        <v>0.2147837731227871</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>55</v>
@@ -926,19 +926,19 @@
         <v>56073</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>43276</v>
+        <v>43158</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>71469</v>
+        <v>72634</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1303391612622588</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1005932477657273</v>
+        <v>0.1003169979572923</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1661252433951928</v>
+        <v>0.168833791200049</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>42595</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31945</v>
+        <v>31000</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55898</v>
+        <v>56980</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1583828925888095</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.118780704902557</v>
+        <v>0.1152672116624432</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2078469553413161</v>
+        <v>0.2118708107471939</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -976,19 +976,19 @@
         <v>24830</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17120</v>
+        <v>16652</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36383</v>
+        <v>35893</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1539612803424877</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1061515174869773</v>
+        <v>0.103250819840281</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.22559835515147</v>
+        <v>0.2225606533873337</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -997,19 +997,19 @@
         <v>67425</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>52542</v>
+        <v>52200</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82072</v>
+        <v>82825</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1567253470020263</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1221296901367924</v>
+        <v>0.1213355151401856</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.190772150397889</v>
+        <v>0.1925222857326087</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>148052</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>132120</v>
+        <v>132231</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>164429</v>
+        <v>167144</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5505080736448998</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4912684961307125</v>
+        <v>0.4916819504391823</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6114038230595312</v>
+        <v>0.6215004161399761</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>78</v>
@@ -1047,19 +1047,19 @@
         <v>81461</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>67487</v>
+        <v>68987</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>93707</v>
+        <v>95845</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5051073956897505</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.418459672496061</v>
+        <v>0.4277570407500559</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5810399931719389</v>
+        <v>0.5942985309516181</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>222</v>
@@ -1068,19 +1068,19 @@
         <v>229513</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>208965</v>
+        <v>207560</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>249875</v>
+        <v>250483</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5334885592258954</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4857266300952111</v>
+        <v>0.4824587054728977</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5808188543791604</v>
+        <v>0.582231642535961</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>52494</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39777</v>
+        <v>39007</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>67905</v>
+        <v>67677</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1278191616006624</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09685410943754838</v>
+        <v>0.09498009953997311</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1653436642265542</v>
+        <v>0.1647874851430945</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -1193,19 +1193,19 @@
         <v>34258</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>24401</v>
+        <v>24320</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48442</v>
+        <v>47163</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1272345653376082</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09062462905986701</v>
+        <v>0.09032490781735007</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1799159136087264</v>
+        <v>0.1751643130259575</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -1214,19 +1214,19 @@
         <v>86752</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70013</v>
+        <v>69734</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>104844</v>
+        <v>106568</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1275876683841686</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1029696073695045</v>
+        <v>0.102558646875264</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1541964963257509</v>
+        <v>0.1567315259565123</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>20877</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13388</v>
+        <v>13208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>31838</v>
+        <v>31693</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05083341780023223</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03259858175264969</v>
+        <v>0.03216010546778361</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07752417407410367</v>
+        <v>0.0771709360716885</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -1264,19 +1264,19 @@
         <v>17471</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10721</v>
+        <v>10294</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27134</v>
+        <v>26745</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06488859172193606</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03981692688570344</v>
+        <v>0.03823131244959158</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1007762998807949</v>
+        <v>0.0993330613803781</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -1285,19 +1285,19 @@
         <v>38348</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>27019</v>
+        <v>27117</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>53804</v>
+        <v>52325</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05639910069138883</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03973719202606345</v>
+        <v>0.03988176378258585</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.07913105577765076</v>
+        <v>0.0769552125241534</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>80436</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>63982</v>
+        <v>65078</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>97691</v>
+        <v>97130</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1958553576379683</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1557907093218267</v>
+        <v>0.1584585695050437</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2378696211466656</v>
+        <v>0.2365032220195518</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>38</v>
@@ -1335,19 +1335,19 @@
         <v>40467</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>30286</v>
+        <v>29090</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>53859</v>
+        <v>53157</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1502970992197696</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1124829104942142</v>
+        <v>0.108042279785716</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.200035317415501</v>
+        <v>0.1974293112821883</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>111</v>
@@ -1356,19 +1356,19 @@
         <v>120903</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>101178</v>
+        <v>101153</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>145462</v>
+        <v>142155</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1778148253157385</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1488045628084047</v>
+        <v>0.1487674279852202</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2139336750894734</v>
+        <v>0.2090695663522531</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>62918</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>49807</v>
+        <v>48916</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79742</v>
+        <v>78113</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1532009071500097</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1212754524553585</v>
+        <v>0.1191063015035813</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1941660314761711</v>
+        <v>0.1901982120022723</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -1406,19 +1406,19 @@
         <v>50573</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38281</v>
+        <v>38426</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>65919</v>
+        <v>65147</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1878301802041369</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1421778454812622</v>
+        <v>0.1427171587406006</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2448247692478336</v>
+        <v>0.2419596400356227</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>107</v>
@@ -1427,19 +1427,19 @@
         <v>113491</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93582</v>
+        <v>93988</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>133352</v>
+        <v>133896</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1669136903317906</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.137633142319261</v>
+        <v>0.1382294719284175</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1961236534057341</v>
+        <v>0.1969237783185629</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>193966</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>173704</v>
+        <v>172808</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>216534</v>
+        <v>215771</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4722911558111274</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4229552340318407</v>
+        <v>0.4207734615352598</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5272425374823069</v>
+        <v>0.525385778806529</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>112</v>
@@ -1477,19 +1477,19 @@
         <v>126479</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109541</v>
+        <v>110332</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>145033</v>
+        <v>142896</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4697495635165492</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4068388236831907</v>
+        <v>0.4097778389698621</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5386608912089165</v>
+        <v>0.5307220866083858</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>290</v>
@@ -1498,19 +1498,19 @@
         <v>320445</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>292181</v>
+        <v>292659</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>345086</v>
+        <v>345722</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4712847152769135</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4297160982398472</v>
+        <v>0.4304188366308999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5075244209862418</v>
+        <v>0.5084599573430916</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>25876</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>17286</v>
+        <v>17613</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38270</v>
+        <v>38455</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0809823456649864</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05409812213132835</v>
+        <v>0.05512275421204829</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1197719146508264</v>
+        <v>0.1203496284735919</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>21</v>
@@ -1623,19 +1623,19 @@
         <v>22761</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15000</v>
+        <v>15023</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>34022</v>
+        <v>33614</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1067262424254764</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07033311060027485</v>
+        <v>0.07044190480449762</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1595280375858263</v>
+        <v>0.1576190744097203</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>45</v>
@@ -1644,19 +1644,19 @@
         <v>48637</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>36400</v>
+        <v>35196</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>63207</v>
+        <v>63164</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09128707675538181</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06832034299198243</v>
+        <v>0.06605946072377948</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1186345277076065</v>
+        <v>0.1185534517683559</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>23583</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14962</v>
+        <v>15101</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>34806</v>
+        <v>35861</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07380796990971324</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04682710333039689</v>
+        <v>0.04726084763898691</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1089301268596004</v>
+        <v>0.11223186186577</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1694,19 +1694,19 @@
         <v>16930</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9345</v>
+        <v>9901</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27259</v>
+        <v>27588</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07938299741071554</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0438195590821835</v>
+        <v>0.04642584452608878</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1278182977381706</v>
+        <v>0.1293625101491441</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -1715,19 +1715,19 @@
         <v>40513</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27435</v>
+        <v>28876</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54076</v>
+        <v>56762</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07603953414234942</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05149289232737377</v>
+        <v>0.05419713076496659</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1014966779058994</v>
+        <v>0.1065370724536265</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>70687</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>55518</v>
+        <v>54919</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>88555</v>
+        <v>87811</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2212263722521146</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1737516829197071</v>
+        <v>0.1718781597823523</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2771454398796926</v>
+        <v>0.2748171969668131</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -1765,19 +1765,19 @@
         <v>25399</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16384</v>
+        <v>16815</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37814</v>
+        <v>37806</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.119096333118361</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07682550853571828</v>
+        <v>0.07884596078093797</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1773115089105013</v>
+        <v>0.1772739356446458</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>82</v>
@@ -1786,19 +1786,19 @@
         <v>96086</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>78516</v>
+        <v>79324</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>117553</v>
+        <v>117028</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1803459026279481</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1473682955306282</v>
+        <v>0.1488835338713996</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2206367921661359</v>
+        <v>0.219651954243032</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>50894</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37469</v>
+        <v>38789</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>64510</v>
+        <v>65972</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1592808060849842</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1172642088120878</v>
+        <v>0.1213945189185238</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2018927896603874</v>
+        <v>0.2064704768608826</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -1836,19 +1836,19 @@
         <v>46866</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35915</v>
+        <v>35623</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>61011</v>
+        <v>61135</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2197579817236966</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1684081106031154</v>
+        <v>0.1670373264146178</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2860808177225285</v>
+        <v>0.2866626519877509</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -1857,19 +1857,19 @@
         <v>97761</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>82250</v>
+        <v>80136</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>118589</v>
+        <v>118193</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1834885256024114</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1543755656615416</v>
+        <v>0.150408750214848</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2225811269322132</v>
+        <v>0.2218375143081485</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>148484</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>127604</v>
+        <v>129482</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>167665</v>
+        <v>167391</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4647025060882017</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3993564611017709</v>
+        <v>0.4052323522358742</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5247319095465298</v>
+        <v>0.523875110695355</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>89</v>
@@ -1907,19 +1907,19 @@
         <v>101308</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>85523</v>
+        <v>85215</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>116159</v>
+        <v>116439</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4750364453217504</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4010209124992023</v>
+        <v>0.399575744385381</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5446725837823494</v>
+        <v>0.5459847235272878</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>224</v>
@@ -1928,19 +1928,19 @@
         <v>249792</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>224062</v>
+        <v>225874</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>274496</v>
+        <v>275293</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4688389608719094</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4205455813112813</v>
+        <v>0.4239462784101342</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5152052610467505</v>
+        <v>0.5167011254939321</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>42735</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>31215</v>
+        <v>30203</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>56619</v>
+        <v>56499</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1027798579074878</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07507477076118495</v>
+        <v>0.07263976451719195</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1361723445289131</v>
+        <v>0.135883425520129</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>49</v>
@@ -2053,19 +2053,19 @@
         <v>52087</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39142</v>
+        <v>40594</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67197</v>
+        <v>67412</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1744005854436362</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1310578066901396</v>
+        <v>0.1359188061293085</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.22499097159613</v>
+        <v>0.2257106810515349</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>90</v>
@@ -2074,19 +2074,19 @@
         <v>94822</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>77879</v>
+        <v>76997</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>113989</v>
+        <v>114009</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1327195310709568</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1090050644035372</v>
+        <v>0.1077705529633824</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1595460369296329</v>
+        <v>0.1595740821752121</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>31066</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>21510</v>
+        <v>21390</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>42770</v>
+        <v>41939</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07471500317602973</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05173338615454557</v>
+        <v>0.05144399939018576</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1028638409573901</v>
+        <v>0.1008659485619868</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>27</v>
@@ -2124,19 +2124,19 @@
         <v>29893</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>20932</v>
+        <v>20027</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>43836</v>
+        <v>41187</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1000883206977143</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07008652607721742</v>
+        <v>0.06705457900157859</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1467721254604649</v>
+        <v>0.1379046203165304</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>59</v>
@@ -2145,19 +2145,19 @@
         <v>60959</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>46998</v>
+        <v>47070</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>77718</v>
+        <v>77093</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08532183250890321</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06578120462856178</v>
+        <v>0.06588231848267694</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1087790684566602</v>
+        <v>0.1079044831414726</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>82723</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>65820</v>
+        <v>67902</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>97660</v>
+        <v>100692</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1989536996697301</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1583002154665479</v>
+        <v>0.1633071397730012</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2348776234489769</v>
+        <v>0.2421690227697733</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>46</v>
@@ -2195,19 +2195,19 @@
         <v>48237</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>36504</v>
+        <v>36669</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>62658</v>
+        <v>62245</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1615071841253116</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1222246404969353</v>
+        <v>0.1227771510928165</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2097929878793494</v>
+        <v>0.2084102605479701</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>128</v>
@@ -2216,19 +2216,19 @@
         <v>130960</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>112862</v>
+        <v>110661</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>155050</v>
+        <v>151950</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.183299901180392</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1579693113691502</v>
+        <v>0.1548880948337614</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2170181896278859</v>
+        <v>0.2126789551803636</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>105994</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>89303</v>
+        <v>89240</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>124324</v>
+        <v>126862</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2549216391668639</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2147792228782205</v>
+        <v>0.2146270520330605</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.299005789512508</v>
+        <v>0.3051096700302934</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>54</v>
@@ -2266,19 +2266,19 @@
         <v>56720</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>43175</v>
+        <v>44185</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>70955</v>
+        <v>72010</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1899133685286108</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1445608265751271</v>
+        <v>0.1479432950149832</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2375738611453977</v>
+        <v>0.2411074995928938</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>159</v>
@@ -2287,19 +2287,19 @@
         <v>162715</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>139791</v>
+        <v>141670</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>185575</v>
+        <v>186197</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2277461769398251</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1956613740816784</v>
+        <v>0.1982907009814841</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2597430761845356</v>
+        <v>0.2606134778747864</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>153273</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>134163</v>
+        <v>132936</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>172827</v>
+        <v>174363</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3686298000798885</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3226686452555331</v>
+        <v>0.319717536955884</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4156585399051508</v>
+        <v>0.419351595891717</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>109</v>
@@ -2337,19 +2337,19 @@
         <v>111728</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>96495</v>
+        <v>95542</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>128115</v>
+        <v>129716</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3740905412047272</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.323088241027665</v>
+        <v>0.3198958108975003</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4289590309731743</v>
+        <v>0.4343186272392495</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>250</v>
@@ -2358,19 +2358,19 @@
         <v>265001</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>239200</v>
+        <v>240518</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>291757</v>
+        <v>293175</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3709125582999229</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3347999202170424</v>
+        <v>0.3366447480217516</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4083625687013524</v>
+        <v>0.4103467597513628</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>158106</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>135187</v>
+        <v>135855</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>186889</v>
+        <v>185705</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1117403237839614</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09554214818584224</v>
+        <v>0.09601411831432519</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1320819288944506</v>
+        <v>0.1312452899406831</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>120</v>
@@ -2483,19 +2483,19 @@
         <v>130995</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>110688</v>
+        <v>110165</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>154870</v>
+        <v>154988</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1389940255188589</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1174469057568899</v>
+        <v>0.1168915794506577</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1643263255711285</v>
+        <v>0.1644525270516064</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>267</v>
@@ -2504,19 +2504,19 @@
         <v>289101</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>257104</v>
+        <v>254911</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>321913</v>
+        <v>321266</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1226359454313633</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1090628733644938</v>
+        <v>0.1081325823151612</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1365542915639117</v>
+        <v>0.1362798662943059</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>85180</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>69244</v>
+        <v>67569</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>105784</v>
+        <v>104315</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06020037512586694</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04893770104894796</v>
+        <v>0.04775418539566483</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07476204551267869</v>
+        <v>0.07372366413006391</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>65</v>
@@ -2554,19 +2554,19 @@
         <v>72949</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>56688</v>
+        <v>56564</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>91225</v>
+        <v>90590</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07740353481154212</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06014954235716129</v>
+        <v>0.06001801656017252</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09679515838793563</v>
+        <v>0.09612198686576758</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>146</v>
@@ -2575,19 +2575,19 @@
         <v>158129</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>131835</v>
+        <v>135599</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>188799</v>
+        <v>185609</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06707794063598424</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05592393074315857</v>
+        <v>0.05752063746756424</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0800877488342974</v>
+        <v>0.07873479422861102</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>265481</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>233408</v>
+        <v>234524</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>298476</v>
+        <v>294653</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1876266613425647</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1649590763311311</v>
+        <v>0.1657479528392332</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2109451183413873</v>
+        <v>0.2082437424473441</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>129</v>
@@ -2625,19 +2625,19 @@
         <v>138541</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>117433</v>
+        <v>118050</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>162079</v>
+        <v>163284</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1470010982423131</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1246042685751718</v>
+        <v>0.1252584811721371</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1719762281265745</v>
+        <v>0.1732543495216936</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>376</v>
@@ -2646,19 +2646,19 @@
         <v>404023</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>366978</v>
+        <v>369052</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>447288</v>
+        <v>442007</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1713851698542284</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1556707492650017</v>
+        <v>0.1565506023755287</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1897380257855452</v>
+        <v>0.1874978012176911</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>262402</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>236011</v>
+        <v>235593</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>294349</v>
+        <v>293026</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.185450178165159</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1667985190553989</v>
+        <v>0.1665037524462046</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2080289748628635</v>
+        <v>0.2070934512695125</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>168</v>
@@ -2696,19 +2696,19 @@
         <v>178990</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>154074</v>
+        <v>155638</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>204680</v>
+        <v>205981</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1899194187406686</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1634824785621325</v>
+        <v>0.1651417495418325</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2171788943293518</v>
+        <v>0.2185586337114716</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>423</v>
@@ -2717,19 +2717,19 @@
         <v>441392</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>405914</v>
+        <v>401445</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>483215</v>
+        <v>482659</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1872369135905202</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.172187602959589</v>
+        <v>0.1702916191214498</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2049781599579034</v>
+        <v>0.2047426003583778</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>643775</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>610647</v>
+        <v>605311</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>684265</v>
+        <v>682599</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.454982461582448</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4315698383252452</v>
+        <v>0.4277984070312221</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4835989102218116</v>
+        <v>0.4824215459714211</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>388</v>
@@ -2767,19 +2767,19 @@
         <v>420976</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>386776</v>
+        <v>388758</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>451887</v>
+        <v>450910</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4466819226866173</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4103940742993996</v>
+        <v>0.4124963702658143</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4794807627739177</v>
+        <v>0.4784439599874707</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>986</v>
@@ -2788,19 +2788,19 @@
         <v>1064751</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1015766</v>
+        <v>1017221</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1114004</v>
+        <v>1115899</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4516640304879039</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4308848836459407</v>
+        <v>0.4315018458272424</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4725570084028041</v>
+        <v>0.4733606931671573</v>
       </c>
     </row>
     <row r="33">
@@ -3132,19 +3132,19 @@
         <v>31960</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22181</v>
+        <v>21327</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43827</v>
+        <v>42618</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1324364879787636</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09191485292066336</v>
+        <v>0.08837500072075037</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1816132023309309</v>
+        <v>0.1766037730555371</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -3153,19 +3153,19 @@
         <v>32712</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23940</v>
+        <v>24405</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43736</v>
+        <v>43348</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1991817677100152</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1457717910627419</v>
+        <v>0.1486033315043404</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2663076779435842</v>
+        <v>0.2639427297567966</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -3174,19 +3174,19 @@
         <v>64672</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51528</v>
+        <v>49898</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81357</v>
+        <v>80136</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1594655871948258</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1270554470122788</v>
+        <v>0.1230366777677944</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2006080650629594</v>
+        <v>0.1975971892915984</v>
       </c>
     </row>
     <row r="5">
@@ -3203,19 +3203,19 @@
         <v>31231</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22602</v>
+        <v>21918</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>42920</v>
+        <v>42611</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1294182313251029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09366087358392673</v>
+        <v>0.0908233563870282</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1778530837666556</v>
+        <v>0.1765720002417701</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -3224,19 +3224,19 @@
         <v>19799</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>12717</v>
+        <v>12799</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29384</v>
+        <v>29650</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.120557803793677</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07743103059216841</v>
+        <v>0.07793030280207931</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1789154987594909</v>
+        <v>0.180537176242988</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -3245,19 +3245,19 @@
         <v>51031</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37915</v>
+        <v>38524</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>66825</v>
+        <v>64809</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1258301217867514</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09348950288940668</v>
+        <v>0.09499045429779714</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1647738359088544</v>
+        <v>0.1598035861419996</v>
       </c>
     </row>
     <row r="6">
@@ -3274,19 +3274,19 @@
         <v>56366</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44528</v>
+        <v>44317</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>71161</v>
+        <v>70346</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2335747110355634</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1845186269662787</v>
+        <v>0.1836426031645488</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2948805864497837</v>
+        <v>0.2915020270515534</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>44</v>
@@ -3295,19 +3295,19 @@
         <v>42121</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>31609</v>
+        <v>32466</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>54561</v>
+        <v>54641</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2564734101523919</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1924652392924814</v>
+        <v>0.1976820574393974</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3322219047453034</v>
+        <v>0.3327051784490467</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>100</v>
@@ -3316,19 +3316,19 @@
         <v>98488</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>82315</v>
+        <v>82474</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>114862</v>
+        <v>117467</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2428477444671353</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2029707816851303</v>
+        <v>0.203361875702349</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2832239265814284</v>
+        <v>0.2896456007246479</v>
       </c>
     </row>
     <row r="7">
@@ -3345,19 +3345,19 @@
         <v>65521</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53232</v>
+        <v>51767</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80047</v>
+        <v>80334</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2715077229186491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2205878611807506</v>
+        <v>0.2145145628242364</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3317035650371317</v>
+        <v>0.3328941906991437</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -3366,19 +3366,19 @@
         <v>32353</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22641</v>
+        <v>23957</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41907</v>
+        <v>43330</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1969929604246753</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1378614101780847</v>
+        <v>0.1458704375730331</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2551673837571909</v>
+        <v>0.2638370517503791</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -3387,19 +3387,19 @@
         <v>97873</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81660</v>
+        <v>80220</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>116108</v>
+        <v>114451</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2413323020256582</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2013541750673746</v>
+        <v>0.1978043989374358</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2862957495576035</v>
+        <v>0.2822088810577221</v>
       </c>
     </row>
     <row r="8">
@@ -3416,19 +3416,19 @@
         <v>56243</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>43881</v>
+        <v>44336</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>70100</v>
+        <v>72219</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.233062846741921</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1818352247295882</v>
+        <v>0.1837228955574836</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.290483652223604</v>
+        <v>0.2992643167693581</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -3437,19 +3437,19 @@
         <v>37247</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27574</v>
+        <v>27636</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50454</v>
+        <v>48396</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2267940579192406</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1678966448791858</v>
+        <v>0.1682765654792474</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3072090774274158</v>
+        <v>0.2946777521635507</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>90</v>
@@ -3458,19 +3458,19 @@
         <v>93490</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>76935</v>
+        <v>77387</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>112115</v>
+        <v>110940</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2305242445256292</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1897032431047229</v>
+        <v>0.1908192616546971</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2764508105252734</v>
+        <v>0.2735522933600342</v>
       </c>
     </row>
     <row r="9">
@@ -3562,19 +3562,19 @@
         <v>54424</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41175</v>
+        <v>41129</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70360</v>
+        <v>72125</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1316977801969262</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0996383222006219</v>
+        <v>0.09952644612479765</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1702626099953556</v>
+        <v>0.1745327482760661</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -3583,19 +3583,19 @@
         <v>40231</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29970</v>
+        <v>30455</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54378</v>
+        <v>53980</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1475020445419902</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.109881670868013</v>
+        <v>0.1116585137227292</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.19936937592048</v>
+        <v>0.1979099535949135</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -3604,19 +3604,19 @@
         <v>94655</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>77357</v>
+        <v>75381</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>115055</v>
+        <v>114950</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1379815262921197</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1127662411259151</v>
+        <v>0.1098853631154997</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1677187537443095</v>
+        <v>0.1675669857812649</v>
       </c>
     </row>
     <row r="11">
@@ -3633,19 +3633,19 @@
         <v>48828</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36487</v>
+        <v>36469</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>63905</v>
+        <v>63618</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1181583725105673</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08829311307565178</v>
+        <v>0.08825002680639053</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.154640879586329</v>
+        <v>0.1539466169016797</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -3654,19 +3654,19 @@
         <v>31736</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22500</v>
+        <v>22909</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>43912</v>
+        <v>43342</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1163567984441786</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08249205609553495</v>
+        <v>0.08399280411266488</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1609983216063645</v>
+        <v>0.1589083574377586</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>76</v>
@@ -3675,19 +3675,19 @@
         <v>80565</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>64360</v>
+        <v>64172</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>98464</v>
+        <v>99967</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1174420700141207</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09381910078684466</v>
+        <v>0.09354522493851095</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1435340527685397</v>
+        <v>0.1457246679948654</v>
       </c>
     </row>
     <row r="12">
@@ -3704,19 +3704,19 @@
         <v>103467</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>84929</v>
+        <v>86020</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>123508</v>
+        <v>122538</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2503768272228418</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2055176660135894</v>
+        <v>0.2081576237558173</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2988732352415213</v>
+        <v>0.2965254215534018</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>64</v>
@@ -3725,19 +3725,19 @@
         <v>62014</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48795</v>
+        <v>49485</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>76954</v>
+        <v>76731</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2273652290760998</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1789012058147391</v>
+        <v>0.1814307603420771</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.282140420570364</v>
+        <v>0.2813236544763331</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>160</v>
@@ -3746,19 +3746,19 @@
         <v>165481</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>144003</v>
+        <v>144284</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>186459</v>
+        <v>187673</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2412274586194298</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2099182033651254</v>
+        <v>0.2103271456898224</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2718071456549713</v>
+        <v>0.2735775314251365</v>
       </c>
     </row>
     <row r="13">
@@ -3775,19 +3775,19 @@
         <v>93534</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>76846</v>
+        <v>76257</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>111857</v>
+        <v>112369</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2263405321098799</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1859570748477881</v>
+        <v>0.1845312806546016</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2706791121354554</v>
+        <v>0.2719184060874459</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -3796,19 +3796,19 @@
         <v>70339</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55133</v>
+        <v>56032</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85106</v>
+        <v>83947</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2578859763038204</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2021355313816195</v>
+        <v>0.2054329369304615</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3120269291685412</v>
+        <v>0.3077806217346833</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -3817,19 +3817,19 @@
         <v>163873</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>142445</v>
+        <v>140475</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>186661</v>
+        <v>187824</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2388829420219697</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2076469843808881</v>
+        <v>0.2047743244393211</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2721018491790805</v>
+        <v>0.2737971098413098</v>
       </c>
     </row>
     <row r="14">
@@ -3846,19 +3846,19 @@
         <v>112992</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93612</v>
+        <v>93724</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>132105</v>
+        <v>132716</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2734264879597848</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2265274297870691</v>
+        <v>0.2267994854476897</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3196773976169606</v>
+        <v>0.3211543876644585</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -3867,19 +3867,19 @@
         <v>68430</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53473</v>
+        <v>54723</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>82397</v>
+        <v>85003</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.250889951633911</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1960507026863914</v>
+        <v>0.2006319569879395</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3020975133345696</v>
+        <v>0.3116495448073097</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>166</v>
@@ -3888,19 +3888,19 @@
         <v>181423</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>156924</v>
+        <v>160330</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>204264</v>
+        <v>207853</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2644660030523602</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2287524624339588</v>
+        <v>0.2337182566050676</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.297762607359899</v>
+        <v>0.3029941902652233</v>
       </c>
     </row>
     <row r="15">
@@ -3992,19 +3992,19 @@
         <v>55274</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41787</v>
+        <v>42370</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71984</v>
+        <v>71427</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1523671433821844</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1151898521029459</v>
+        <v>0.1167962231080922</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1984290439513423</v>
+        <v>0.1968932520909456</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -4013,19 +4013,19 @@
         <v>47074</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>34776</v>
+        <v>36482</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60479</v>
+        <v>61082</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1746547417702858</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1290272106041797</v>
+        <v>0.1353589138673948</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2243923355310372</v>
+        <v>0.2266280849875486</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>94</v>
@@ -4034,19 +4034,19 @@
         <v>102348</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>83652</v>
+        <v>83291</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>120792</v>
+        <v>121725</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1618675446677442</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1322999703235439</v>
+        <v>0.1317279493218081</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1910371757073755</v>
+        <v>0.1925135020401886</v>
       </c>
     </row>
     <row r="17">
@@ -4063,19 +4063,19 @@
         <v>63110</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>49903</v>
+        <v>48094</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>80307</v>
+        <v>77548</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1739666783106069</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1375610509309363</v>
+        <v>0.1325732734790438</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.221371005835</v>
+        <v>0.2137655228414384</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -4084,19 +4084,19 @@
         <v>64132</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50122</v>
+        <v>50937</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>78877</v>
+        <v>79433</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2379459259607383</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1859662518375023</v>
+        <v>0.1889903039295874</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2926533299455065</v>
+        <v>0.294714713263097</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>121</v>
@@ -4105,19 +4105,19 @@
         <v>127242</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>106831</v>
+        <v>108046</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>148466</v>
+        <v>150566</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2012387296119689</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1689583516489428</v>
+        <v>0.1708797033692185</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2348053076891745</v>
+        <v>0.2381270497159138</v>
       </c>
     </row>
     <row r="18">
@@ -4134,19 +4134,19 @@
         <v>85678</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>70857</v>
+        <v>68809</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>103721</v>
+        <v>102892</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2361773265285276</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1953210007919867</v>
+        <v>0.1896754298613561</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2859137429518541</v>
+        <v>0.2836276583936004</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>62</v>
@@ -4155,19 +4155,19 @@
         <v>62873</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>50432</v>
+        <v>50171</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>77200</v>
+        <v>77853</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2332743555534507</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1871135528085045</v>
+        <v>0.1861452827119955</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2864319225072369</v>
+        <v>0.2888555010027438</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>140</v>
@@ -4176,19 +4176,19 @@
         <v>148551</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>126836</v>
+        <v>126536</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>171037</v>
+        <v>171376</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2349398944506826</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2005972017227511</v>
+        <v>0.2001217169050159</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.270502914316544</v>
+        <v>0.2710389716411328</v>
       </c>
     </row>
     <row r="19">
@@ -4205,19 +4205,19 @@
         <v>75945</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60585</v>
+        <v>60661</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>93445</v>
+        <v>93743</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2093474347885541</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1670073988529309</v>
+        <v>0.1672173819775898</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2575883707064812</v>
+        <v>0.2584096962868354</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -4226,19 +4226,19 @@
         <v>38656</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>28646</v>
+        <v>28699</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51876</v>
+        <v>50880</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1434232840161461</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1062846679693498</v>
+        <v>0.1064798905659639</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1924725210305809</v>
+        <v>0.1887783885902576</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>104</v>
@@ -4247,19 +4247,19 @@
         <v>114601</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>94722</v>
+        <v>96905</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>136404</v>
+        <v>137250</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1812463412637361</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1498067637568049</v>
+        <v>0.1532595188975955</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2157293224474067</v>
+        <v>0.2170659729143676</v>
       </c>
     </row>
     <row r="20">
@@ -4276,19 +4276,19 @@
         <v>82763</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>67413</v>
+        <v>68398</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>100225</v>
+        <v>101274</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.228141416990127</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1858283410385657</v>
+        <v>0.188544934514267</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2762769909789948</v>
+        <v>0.279168999582676</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>55</v>
@@ -4297,19 +4297,19 @@
         <v>56789</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43560</v>
+        <v>44480</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>70053</v>
+        <v>71101</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.210701692699379</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1616164351423554</v>
+        <v>0.1650332288254974</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2599136653205759</v>
+        <v>0.2638028644405795</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>131</v>
@@ -4318,19 +4318,19 @@
         <v>139552</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>119815</v>
+        <v>118977</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>162419</v>
+        <v>159803</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2207074900058682</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.18949178440013</v>
+        <v>0.1881670391921121</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2568728805232177</v>
+        <v>0.2527349637647133</v>
       </c>
     </row>
     <row r="21">
@@ -4422,19 +4422,19 @@
         <v>67321</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>53764</v>
+        <v>52434</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>83712</v>
+        <v>83902</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1687233769708974</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1347474572023843</v>
+        <v>0.1314125563611758</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2098044615684132</v>
+        <v>0.2102795266028039</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>71</v>
@@ -4443,19 +4443,19 @@
         <v>74384</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60717</v>
+        <v>59696</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>90319</v>
+        <v>90509</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2285415653635626</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1865496406696167</v>
+        <v>0.1834138785552407</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2775011617352924</v>
+        <v>0.2780835168825343</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>137</v>
@@ -4464,19 +4464,19 @@
         <v>141705</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>120334</v>
+        <v>120189</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>164472</v>
+        <v>163059</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1955970166867419</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1660981908828356</v>
+        <v>0.1658976558016662</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2270221008532155</v>
+        <v>0.2250720224312055</v>
       </c>
     </row>
     <row r="23">
@@ -4493,19 +4493,19 @@
         <v>39225</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>28841</v>
+        <v>28258</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52295</v>
+        <v>52601</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09830680661347371</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07228372796456112</v>
+        <v>0.07082311479742588</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1310636541209775</v>
+        <v>0.1318318573105886</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>25</v>
@@ -4514,19 +4514,19 @@
         <v>27754</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>18644</v>
+        <v>17531</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>39702</v>
+        <v>39696</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08527237013716324</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05728400071921439</v>
+        <v>0.0538627009161014</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1219827260130367</v>
+        <v>0.1219633017559095</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>63</v>
@@ -4535,19 +4535,19 @@
         <v>66978</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>52603</v>
+        <v>53126</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>83787</v>
+        <v>85108</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.09245101660752995</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07260873859653721</v>
+        <v>0.07333022654294293</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1156516759825312</v>
+        <v>0.1174757698365078</v>
       </c>
     </row>
     <row r="24">
@@ -4564,19 +4564,19 @@
         <v>76264</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>61551</v>
+        <v>62577</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>90882</v>
+        <v>94048</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1911381709434113</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1542625688981444</v>
+        <v>0.1568340345058014</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2277741397507834</v>
+        <v>0.2357098437283748</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>63</v>
@@ -4585,19 +4585,19 @@
         <v>68272</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>55578</v>
+        <v>54905</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>85228</v>
+        <v>85871</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2097627612986994</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1707595621223533</v>
+        <v>0.1686934734888872</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2618566703900298</v>
+        <v>0.2638323006516963</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>138</v>
@@ -4606,19 +4606,19 @@
         <v>144537</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>122399</v>
+        <v>124812</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>167646</v>
+        <v>169627</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1995053673515957</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1689490593397288</v>
+        <v>0.1722785929026776</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2314038064789589</v>
+        <v>0.2341375323200125</v>
       </c>
     </row>
     <row r="25">
@@ -4635,19 +4635,19 @@
         <v>84935</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>68041</v>
+        <v>69990</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>100177</v>
+        <v>104054</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2128684452003671</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1705279305876772</v>
+        <v>0.1754137248194524</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2510686219252843</v>
+        <v>0.2607856036207521</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -4656,19 +4656,19 @@
         <v>66136</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>51776</v>
+        <v>52368</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>79819</v>
+        <v>81879</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2032000028330058</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1590800054129415</v>
+        <v>0.1608987264043292</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2452381380841299</v>
+        <v>0.2515684004018737</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>150</v>
@@ -4677,19 +4677,19 @@
         <v>151071</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>132132</v>
+        <v>129864</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>174161</v>
+        <v>173104</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2085248459745214</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1823833220538147</v>
+        <v>0.1792521843314369</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2403955881751309</v>
+        <v>0.238937663784054</v>
       </c>
     </row>
     <row r="26">
@@ -4706,19 +4706,19 @@
         <v>131257</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>114430</v>
+        <v>114397</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>152403</v>
+        <v>152042</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3289632002718506</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2867911092438477</v>
+        <v>0.2867076865801704</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3819607985524608</v>
+        <v>0.3810567630567483</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>84</v>
@@ -4727,19 +4727,19 @@
         <v>88927</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>73792</v>
+        <v>73283</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>104771</v>
+        <v>105840</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2732233003675689</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2267203057481396</v>
+        <v>0.225156581987041</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3219017364272148</v>
+        <v>0.3251879536362653</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>210</v>
@@ -4748,19 +4748,19 @@
         <v>220184</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>197854</v>
+        <v>192761</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>245805</v>
+        <v>244688</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.303921753379611</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2731002295770902</v>
+        <v>0.2660694291840561</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3392866812270916</v>
+        <v>0.3377457652163016</v>
       </c>
     </row>
     <row r="27">
@@ -4852,19 +4852,19 @@
         <v>208978</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>183388</v>
+        <v>181826</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>238305</v>
+        <v>236424</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1475483343963626</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1294803330236287</v>
+        <v>0.1283777774177462</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1682542780958702</v>
+        <v>0.1669265591172341</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>187</v>
@@ -4873,19 +4873,19 @@
         <v>194402</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>169066</v>
+        <v>170407</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>220246</v>
+        <v>221772</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1883768620046717</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1638268542358808</v>
+        <v>0.1651255772084693</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2134206483946004</v>
+        <v>0.2148986135241817</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>377</v>
@@ -4894,19 +4894,19 @@
         <v>403380</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>371149</v>
+        <v>366883</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>439793</v>
+        <v>441990</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1647578161192035</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1515935601604763</v>
+        <v>0.1498512147652205</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1796306953464039</v>
+        <v>0.180527897040392</v>
       </c>
     </row>
     <row r="29">
@@ -4923,19 +4923,19 @@
         <v>182394</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>158142</v>
+        <v>155028</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>209817</v>
+        <v>208001</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1287787342131426</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1116559748305286</v>
+        <v>0.1094568572342605</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1481403552198892</v>
+        <v>0.1468581743716836</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>142</v>
@@ -4944,19 +4944,19 @@
         <v>143422</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>121200</v>
+        <v>122771</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>167556</v>
+        <v>167756</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.138977315025586</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1174442481814948</v>
+        <v>0.1189661708423892</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1623628920743687</v>
+        <v>0.162556967799646</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>310</v>
@@ -4965,19 +4965,19 @@
         <v>325816</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>293557</v>
+        <v>294892</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>363634</v>
+        <v>361851</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1330775003056759</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1199013088281367</v>
+        <v>0.1204467909131243</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1485238501684705</v>
+        <v>0.1477957071864464</v>
       </c>
     </row>
     <row r="30">
@@ -4994,19 +4994,19 @@
         <v>321776</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>289648</v>
+        <v>289967</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>352294</v>
+        <v>353310</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2271887602125272</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2045052214571888</v>
+        <v>0.2047300582863866</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2487358701684181</v>
+        <v>0.2494530344494705</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>233</v>
@@ -5015,19 +5015,19 @@
         <v>235281</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>210123</v>
+        <v>209558</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>263195</v>
+        <v>263288</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2279892776830816</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2036107417787917</v>
+        <v>0.203063728536047</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2550379276539153</v>
+        <v>0.2551283244000766</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>538</v>
@@ -5036,19 +5036,19 @@
         <v>557056</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>516123</v>
+        <v>512100</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>597369</v>
+        <v>597434</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2275261833719045</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2108070295468144</v>
+        <v>0.2091641389138397</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2439914918662202</v>
+        <v>0.2440181536189307</v>
       </c>
     </row>
     <row r="31">
@@ -5065,19 +5065,19 @@
         <v>319934</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>286474</v>
+        <v>290175</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>351649</v>
+        <v>353972</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2258885385277978</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.202264330204255</v>
+        <v>0.2048771049033186</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2482806712726814</v>
+        <v>0.2499205742673034</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>205</v>
@@ -5086,19 +5086,19 @@
         <v>207484</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>183323</v>
+        <v>183941</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>234249</v>
+        <v>234519</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2010536406552324</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1776420487481635</v>
+        <v>0.178240496947014</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2269890315133216</v>
+        <v>0.2272507269150285</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>503</v>
@@ -5107,19 +5107,19 @@
         <v>527418</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>489131</v>
+        <v>491278</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>568792</v>
+        <v>568254</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2154204725439646</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1997824288471605</v>
+        <v>0.2006592314267193</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2323194648055419</v>
+        <v>0.2320996444993069</v>
       </c>
     </row>
     <row r="32">
@@ -5136,19 +5136,19 @@
         <v>383255</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>348364</v>
+        <v>346574</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>420645</v>
+        <v>415251</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2705956326501697</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2459609602044038</v>
+        <v>0.2446975112633692</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2969949709355487</v>
+        <v>0.2931865264868005</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>241</v>
@@ -5157,19 +5157,19 @@
         <v>251394</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>221346</v>
+        <v>223650</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>276586</v>
+        <v>282098</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2436029046314284</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2144862209914911</v>
+        <v>0.2167185145121633</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.268014164931873</v>
+        <v>0.273355553054642</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>597</v>
@@ -5178,19 +5178,19 @@
         <v>634648</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>589296</v>
+        <v>592198</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>676823</v>
+        <v>680977</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2592180276592514</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2406943840505118</v>
+        <v>0.241879551823103</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2764441393862796</v>
+        <v>0.2781408134703335</v>
       </c>
     </row>
     <row r="33">
